--- a/Laba1/wwwroot/Reports/reportVacations.xlsx
+++ b/Laba1/wwwroot/Reports/reportVacations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Отпуска сотрудников</t>
   </si>
@@ -56,16 +56,46 @@
     <t>Больничный</t>
   </si>
   <si>
-    <t>Маринова Светлана Сергеевна</t>
+    <t>03.05.2023</t>
+  </si>
+  <si>
+    <t>11.05.2023</t>
+  </si>
+  <si>
+    <t>08.03.2023</t>
+  </si>
+  <si>
+    <t>16.03.2023</t>
   </si>
   <si>
     <t>Отпуск</t>
   </si>
   <si>
+    <t>13.04.2023</t>
+  </si>
+  <si>
+    <t>20.04.2023</t>
+  </si>
+  <si>
+    <t>25.03.2023</t>
+  </si>
+  <si>
     <t>Смирнова Екатерина Сергеевна</t>
   </si>
   <si>
     <t>13.05.2023</t>
+  </si>
+  <si>
+    <t>05.04.2023</t>
+  </si>
+  <si>
+    <t>12.04.2023</t>
+  </si>
+  <si>
+    <t>09.03.2023</t>
+  </si>
+  <si>
+    <t>17.03.2023</t>
   </si>
 </sst>
 </file>
@@ -388,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -431,7 +461,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -448,42 +478,127 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E6">
-    <sortCondition ref="B3:B6"/>
-    <sortCondition ref="C3:C6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E11">
+    <sortCondition ref="B3:B11"/>
+    <sortCondition ref="C3:C11"/>
   </sortState>
   <mergeCells>
     <mergeCell ref="A1:E1"/>
